--- a/docs/DiccionarioDS_Cancer.xlsx
+++ b/docs/DiccionarioDS_Cancer.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,28 +531,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C3" t="n">
-        <v>17161.52849117175</v>
+        <v>17935.02458396369</v>
       </c>
       <c r="D3" t="n">
-        <v>8427.605005284562</v>
+        <v>9219.203820101844</v>
       </c>
       <c r="E3" t="n">
         <v>41</v>
       </c>
       <c r="F3" t="n">
-        <v>10279.75</v>
+        <v>9610.75</v>
       </c>
       <c r="G3" t="n">
-        <v>16629.5</v>
+        <v>17104</v>
       </c>
       <c r="H3" t="n">
-        <v>23590.5</v>
+        <v>24910.25</v>
       </c>
       <c r="I3" t="n">
-        <v>38148</v>
+        <v>38142</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -619,28 +619,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C5" t="n">
-        <v>15939.19823434992</v>
+        <v>16237.37102874433</v>
       </c>
       <c r="D5" t="n">
-        <v>7544.840831158954</v>
+        <v>8373.595214760875</v>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="F5" t="n">
-        <v>9611.75</v>
+        <v>8283.25</v>
       </c>
       <c r="G5" t="n">
-        <v>15965.5</v>
+        <v>16933.5</v>
       </c>
       <c r="H5" t="n">
-        <v>22161.5</v>
+        <v>22843.25</v>
       </c>
       <c r="I5" t="n">
-        <v>34137</v>
+        <v>34134</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -707,28 +707,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C7" t="n">
-        <v>46.16818820224719</v>
+        <v>61</v>
       </c>
       <c r="D7" t="n">
-        <v>18.28736842030718</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F7" t="n">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H7" t="n">
         <v>61</v>
       </c>
       <c r="I7" t="n">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -784,43 +784,43 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DIAS_HASTA_INICIO_TRATAMIENTO</t>
+          <t>SUBTIPO</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DIAS_HASTA_INICIO_TRATAMIENTO</t>
+          <t>SUBTIPO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19936</v>
+        <v>2315</v>
       </c>
       <c r="C9" t="n">
-        <v>140.9650381219904</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>232.4639146498336</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4191</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DIAS_HASTA_INICIO_TRATAMIENTO</t>
+          <t>SUBTIPO</t>
         </is>
       </c>
     </row>
@@ -872,41 +872,129 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>SOBREVIVE</t>
+          <t>DIAS_HASTA_INICIO_TRATAMIENTO</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOBREVIVE</t>
+          <t>DIAS_HASTA_INICIO_TRATAMIENTO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6591091492776886</v>
+        <v>262.67965204236</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4740206213450049</v>
+        <v>329.8485645640152</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>106</v>
+      </c>
+      <c r="G11" t="n">
+        <v>171</v>
+      </c>
+      <c r="H11" t="n">
+        <v>286</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3247</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>DIAS_HASTA_INICIO_TRATAMIENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>SOBREVIVE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SOBREVIVE</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2644</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8248865355521936</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3801360182122807</v>
+      </c>
+      <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="F13" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
+      <c r="G13" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>SOBREVIVE</t>
         </is>
@@ -923,7 +1011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,18 +1084,18 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>11403</v>
+        <v>2641</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -1054,18 +1142,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C5" t="n">
-        <v>12619</v>
+        <v>2262</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1955-10-15</t>
+          <t>1946-12-05</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -1112,10 +1200,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1123,7 +1211,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12122</v>
+        <v>1801</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -1170,10 +1258,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1269,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16288</v>
+        <v>2337</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1228,10 +1316,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1239,7 +1327,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17237</v>
+        <v>2293</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1286,7 +1374,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
@@ -1297,7 +1385,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>15428</v>
+        <v>1959</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1344,10 +1432,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C15" t="n">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1355,7 +1443,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4856</v>
+        <v>524</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1402,10 +1490,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1413,7 +1501,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10405</v>
+        <v>1119</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1460,10 +1548,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1471,7 +1559,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9034</v>
+        <v>972</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1518,10 +1606,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C21" t="n">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1529,7 +1617,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3444</v>
+        <v>798</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1576,10 +1664,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C23" t="n">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1587,7 +1675,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9238</v>
+        <v>912</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1634,7 +1722,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C25" t="n">
         <v>12</v>
@@ -1645,7 +1733,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>14912</v>
+        <v>1635</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1692,7 +1780,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C27" t="n">
         <v>12</v>
@@ -1703,7 +1791,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>14132</v>
+        <v>1628</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1750,7 +1838,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C29" t="n">
         <v>8</v>
@@ -1761,7 +1849,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>10638</v>
+        <v>1327</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1808,10 +1896,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1819,7 +1907,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>15405</v>
+        <v>2297</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1866,10 +1954,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C33" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1877,7 +1965,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>19193</v>
+        <v>2574</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1924,10 +2012,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C35" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1935,7 +2023,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>19810</v>
+        <v>2626</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1982,10 +2070,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C37" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1993,7 +2081,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>15168</v>
+        <v>2002</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2040,10 +2128,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C39" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2051,7 +2139,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>11989</v>
+        <v>1507</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2098,10 +2186,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2109,7 +2197,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>13823</v>
+        <v>1800</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2156,10 +2244,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C43" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -2167,7 +2255,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>13566</v>
+        <v>1743</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2214,10 +2302,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C45" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2225,7 +2313,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>14378</v>
+        <v>1849</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2272,10 +2360,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C47" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2283,7 +2371,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>14259</v>
+        <v>1825</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2330,18 +2418,18 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>13666</v>
+        <v>1928</v>
       </c>
       <c r="C49" t="n">
-        <v>2734</v>
+        <v>1078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2019-08-22</t>
+          <t>2015-04-14</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2388,10 +2476,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>19933</v>
+        <v>2644</v>
       </c>
       <c r="C51" t="n">
-        <v>3390</v>
+        <v>1553</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2399,7 +2487,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2446,10 +2534,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C53" t="n">
-        <v>3082</v>
+        <v>1506</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2457,7 +2545,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2504,10 +2592,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>19932</v>
+        <v>2643</v>
       </c>
       <c r="C55" t="n">
-        <v>3042</v>
+        <v>1539</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2515,7 +2603,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2562,7 +2650,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
@@ -2573,7 +2661,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>17830</v>
+        <v>2642</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2620,18 +2708,18 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C59" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Mama</t>
+          <t>Prostata</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3293</v>
+        <v>2644</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2678,10 +2766,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C61" t="n">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2689,7 +2777,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2736,10 +2824,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C63" t="n">
-        <v>263</v>
+        <v>1</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2747,7 +2835,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2794,10 +2882,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C65" t="n">
-        <v>403</v>
+        <v>2</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2805,7 +2893,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2709</v>
+        <v>2643</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2852,10 +2940,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C67" t="n">
-        <v>415</v>
+        <v>9</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2863,7 +2951,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3608</v>
+        <v>2499</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2910,10 +2998,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2921,7 +3009,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>18532</v>
+        <v>2644</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2968,7 +3056,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C71" t="n">
         <v>6</v>
@@ -2979,7 +3067,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>7525</v>
+        <v>1786</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3026,7 +3114,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C73" t="n">
         <v>5</v>
@@ -3037,7 +3125,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>13905</v>
+        <v>2627</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3084,18 +3172,18 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C75" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Desconocido</t>
+          <t>Moderadamente Diferenciado</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>7214</v>
+        <v>1292</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -3142,10 +3230,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3153,7 +3241,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>16708</v>
+        <v>2474</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -3200,10 +3288,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3211,7 +3299,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>18385</v>
+        <v>2471</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -3258,10 +3346,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3269,7 +3357,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>13136</v>
+        <v>1607</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3316,10 +3404,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3327,7 +3415,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>12397</v>
+        <v>1648</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -3374,18 +3462,18 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>14270</v>
+        <v>2287</v>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>IV</t>
+          <t>II</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4126</v>
+        <v>860</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -3421,33 +3509,33 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ETAPA_LETRA</t>
+          <t>ESTADO_ACTUAL</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ETAPA_LETRA</t>
+          <t>ESTADO_ACTUAL</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>5357</v>
+        <v>2644</v>
       </c>
       <c r="C87" t="n">
         <v>4</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>VIVO CON ENFERMEDAD</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>2533</v>
+        <v>1919</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ETAPA_LETRA</t>
+          <t>ESTADO_ACTUAL</t>
         </is>
       </c>
     </row>
@@ -3479,33 +3567,33 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>SUBTIPO</t>
+          <t>ESTADO_ACTUAL_TTO</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SUBTIPO</t>
+          <t>ESTADO_ACTUAL_TTO</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>19104</v>
+        <v>1693</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>SUBTIPO</t>
+          <t>ESTADO_ACTUAL_TTO</t>
         </is>
       </c>
     </row>
@@ -3537,33 +3625,33 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ESTADO_ACTUAL</t>
+          <t>ULTIMO_CONTACTO</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ESTADO_ACTUAL</t>
+          <t>ULTIMO_CONTACTO</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>1382</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>VIVO CON ENFERMEDAD</t>
+          <t>08-03-2022</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>10758</v>
+        <v>47</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ESTADO_ACTUAL</t>
+          <t>ULTIMO_CONTACTO</t>
         </is>
       </c>
     </row>
@@ -3595,33 +3683,33 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ESTADO_ACTUAL_TTO</t>
+          <t>ESTADO_RECH</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ESTADO_ACTUAL_TTO</t>
+          <t>ESTADO_RECH</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C93" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>FIN DE CASO</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>11676</v>
+        <v>2323</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ESTADO_ACTUAL_TTO</t>
+          <t>ESTADO_RECH</t>
         </is>
       </c>
     </row>
@@ -3653,33 +3741,33 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ULTIMO_CONTACTO</t>
+          <t>CLASE_DE_CASO</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ULTIMO_CONTACTO</t>
+          <t>CLASE_DE_CASO</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C95" t="n">
-        <v>3537</v>
+        <v>6</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>08-03-2022</t>
+          <t>Diagnosticado en otro centro, TTO en recinto</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>213</v>
+        <v>1683</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ULTIMO_CONTACTO</t>
+          <t>CLASE_DE_CASO</t>
         </is>
       </c>
     </row>
@@ -3711,33 +3799,33 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>FECHA_FALLECIMIENTO</t>
+          <t>FUENTE_1</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FECHA_FALLECIMIENTO</t>
+          <t>FUENTE_1</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6812</v>
+        <v>2378</v>
       </c>
       <c r="C97" t="n">
-        <v>3018</v>
+        <v>10</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>23-07-2021</t>
+          <t>RADIOTERAPIA</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>990</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>FECHA_FALLECIMIENTO</t>
+          <t>FUENTE_1</t>
         </is>
       </c>
     </row>
@@ -3769,33 +3857,33 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>CAUSA_FALLECIMIENTO</t>
+          <t>ESTADO</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CAUSA_FALLECIMIENTO</t>
+          <t>ESTADO</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>6753</v>
+        <v>2644</v>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Cancer</t>
+          <t>CORRESPONDE</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6214</v>
+        <v>2639</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>CAUSA_FALLECIMIENTO</t>
+          <t>ESTADO</t>
         </is>
       </c>
     </row>
@@ -3827,33 +3915,33 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ESTADO_RECH</t>
+          <t>INTENCION_TRATA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ESTADO_RECH</t>
+          <t>INTENCION_TRATA</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>FIN DE CASO</t>
+          <t>Curativo</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>17393</v>
+        <v>2227</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ESTADO_RECH</t>
+          <t>INTENCION_TRATA</t>
         </is>
       </c>
     </row>
@@ -3885,33 +3973,33 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>CLASE_DE_CASO</t>
+          <t>RESPUESTA_TRATA</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CLASE_DE_CASO</t>
+          <t>RESPUESTA_TRATA</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C103" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Diagnosticado en otro centro, TTO en recinto</t>
+          <t>Enfermedad Estable</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>10040</v>
+        <v>1954</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>CLASE_DE_CASO</t>
+          <t>RESPUESTA_TRATA</t>
         </is>
       </c>
     </row>
@@ -3943,33 +4031,33 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>FUENTE_1</t>
+          <t>OBSERVACIONES</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>FUENTE_1</t>
+          <t>OBSERVACIONES</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>18437</v>
+        <v>2644</v>
       </c>
       <c r="C105" t="n">
-        <v>10</v>
+        <v>2060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>RADIOTERAPIA</t>
+          <t>|</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>5097</v>
+        <v>98</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>FUENTE_1</t>
+          <t>OBSERVACIONES</t>
         </is>
       </c>
     </row>
@@ -4001,33 +4089,33 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>FUENTE_2</t>
+          <t>TIPO_TERAPIA_1</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>FUENTE_2</t>
+          <t>TIPO_TERAPIA_1</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>6644</v>
+        <v>2644</v>
       </c>
       <c r="C107" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>CAE</t>
+          <t>Teleterapia</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1428</v>
+        <v>1557</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>FUENTE_2</t>
+          <t>TIPO_TERAPIA_1</t>
         </is>
       </c>
     </row>
@@ -4059,33 +4147,33 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>ESTADO</t>
+          <t>TIPO_TERAPIA_2</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ESTADO</t>
+          <t>TIPO_TERAPIA_2</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>19936</v>
+        <v>920</v>
       </c>
       <c r="C109" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>CORRESPONDE</t>
+          <t>Hormonoterapia</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>19830</v>
+        <v>402</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>ESTADO</t>
+          <t>TIPO_TERAPIA_2</t>
         </is>
       </c>
     </row>
@@ -4117,33 +4205,33 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>INTENCION_TRATA</t>
+          <t>FECHA_INICIO_1</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>INTENCION_TRATA</t>
+          <t>FECHA_INICIO_1</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>19936</v>
+        <v>2644</v>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>1543</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Curativo</t>
+          <t>2019-09-23</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>14206</v>
+        <v>10</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>INTENCION_TRATA</t>
+          <t>FECHA_INICIO_1</t>
         </is>
       </c>
     </row>
@@ -4175,33 +4263,33 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>RESPUESTA_TRATA</t>
+          <t>FECHA_INICIO_2</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>RESPUESTA_TRATA</t>
+          <t>FECHA_INICIO_2</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>19936</v>
+        <v>899</v>
       </c>
       <c r="C113" t="n">
-        <v>7</v>
+        <v>736</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Enfermedad Estable</t>
+          <t>2016-04-11</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>12007</v>
+        <v>5</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>RESPUESTA_TRATA</t>
+          <t>FECHA_INICIO_2</t>
         </is>
       </c>
     </row>
@@ -4233,33 +4321,33 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>OBSERVACIONES</t>
+          <t>FECHA_TERMINO_1</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>OBSERVACIONES</t>
+          <t>FECHA_TERMINO_1</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>19936</v>
+        <v>2583</v>
       </c>
       <c r="C115" t="n">
-        <v>14168</v>
+        <v>1678</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>|</t>
+          <t>2021-09-06</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2045</v>
+        <v>6</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>OBSERVACIONES</t>
+          <t>FECHA_TERMINO_1</t>
         </is>
       </c>
     </row>
@@ -4291,33 +4379,33 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>TIPO_TERAPIA_1</t>
+          <t>FECHA_TERMINO_2</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TIPO_TERAPIA_1</t>
+          <t>FECHA_TERMINO_2</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>19936</v>
+        <v>790</v>
       </c>
       <c r="C117" t="n">
-        <v>14</v>
+        <v>682</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Teleterapia</t>
+          <t>2016-11-21</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>6456</v>
+        <v>4</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>TIPO_TERAPIA_1</t>
+          <t>FECHA_TERMINO_2</t>
         </is>
       </c>
     </row>
@@ -4349,33 +4437,33 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>TIPO_TERAPIA_2</t>
+          <t>TIPO_TRATAMIENTO_1</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TIPO_TERAPIA_2</t>
+          <t>TIPO_TRATAMIENTO_1</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>6510</v>
+        <v>2644</v>
       </c>
       <c r="C119" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Teleterapia</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1456</v>
+        <v>1078</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>TIPO_TERAPIA_2</t>
+          <t>TIPO_TRATAMIENTO_1</t>
         </is>
       </c>
     </row>
@@ -4407,33 +4495,33 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>FECHA_INICIO_1</t>
+          <t>TIPO_TRATAMIENTO_2</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>FECHA_INICIO_1</t>
+          <t>TIPO_TRATAMIENTO_2</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>19936</v>
+        <v>920</v>
       </c>
       <c r="C121" t="n">
-        <v>3085</v>
+        <v>3</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>30</v>
+        <v>524</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>FECHA_INICIO_1</t>
+          <t>TIPO_TRATAMIENTO_2</t>
         </is>
       </c>
     </row>
@@ -4465,33 +4553,33 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>FECHA_INICIO_2</t>
+          <t>Tipo_Tumor</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>FECHA_INICIO_2</t>
+          <t>Tipo_Tumor</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>6435</v>
+        <v>2251</v>
       </c>
       <c r="C123" t="n">
-        <v>2461</v>
+        <v>4</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2018-02-14</t>
+          <t>C</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>11</v>
+        <v>945</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>FECHA_INICIO_2</t>
+          <t>Tipo_Tumor</t>
         </is>
       </c>
     </row>
@@ -4523,33 +4611,33 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>FECHA_TERMINO_1</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>FECHA_TERMINO_1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>19501</v>
+        <v>2214</v>
       </c>
       <c r="C125" t="n">
-        <v>3577</v>
+        <v>15</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2019-10-30</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>22</v>
+        <v>316</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>FECHA_TERMINO_1</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -4581,33 +4669,33 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>FECHA_TERMINO_2</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>FECHA_TERMINO_2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>5876</v>
+        <v>2214</v>
       </c>
       <c r="C127" t="n">
-        <v>2621</v>
+        <v>7</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>N0</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>10</v>
+        <v>1525</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>FECHA_TERMINO_2</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -4639,321 +4727,31 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>TIPO_TRATAMIENTO_1</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>TIPO_TRATAMIENTO_1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>19936</v>
+        <v>2214</v>
       </c>
       <c r="C129" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>M0</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>8794</v>
+        <v>1730</v>
       </c>
       <c r="F129" t="inlineStr">
-        <is>
-          <t>TIPO_TRATAMIENTO_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>TIPO_TRATAMIENTO_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>TIPO_TRATAMIENTO_2</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>6510</v>
-      </c>
-      <c r="C131" t="n">
-        <v>3</v>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>2717</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>TIPO_TRATAMIENTO_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Tipo_Tumor</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Tipo_Tumor</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>14196</v>
-      </c>
-      <c r="C133" t="n">
-        <v>5</v>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>5017</v>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Tipo_Tumor</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>12726</v>
-      </c>
-      <c r="C135" t="n">
-        <v>26</v>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>2272</v>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>12726</v>
-      </c>
-      <c r="C137" t="n">
-        <v>18</v>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>N0</t>
-        </is>
-      </c>
-      <c r="E137" t="n">
-        <v>5860</v>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>12726</v>
-      </c>
-      <c r="C139" t="n">
-        <v>14</v>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>M0</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>7915</v>
-      </c>
-      <c r="F139" t="inlineStr">
         <is>
           <t>M</t>
         </is>

--- a/docs/DiccionarioDS_Cancer.xlsx
+++ b/docs/DiccionarioDS_Cancer.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,43 +520,43 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>IDPACIENTE</t>
+          <t>COD_TOPOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IDPACIENTE</t>
+          <t>COD_TOPOLOGIA</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2644</v>
       </c>
       <c r="C3" t="n">
-        <v>17935.02458396369</v>
+        <v>61</v>
       </c>
       <c r="D3" t="n">
-        <v>9219.203820101844</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="F3" t="n">
-        <v>9610.75</v>
+        <v>61</v>
       </c>
       <c r="G3" t="n">
-        <v>17104</v>
+        <v>61</v>
       </c>
       <c r="H3" t="n">
-        <v>24910.25</v>
+        <v>61</v>
       </c>
       <c r="I3" t="n">
-        <v>38142</v>
+        <v>61</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>IDPACIENTE</t>
+          <t>COD_TOPOLOGIA</t>
         </is>
       </c>
     </row>
@@ -608,43 +608,43 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>IDTUMOR</t>
+          <t>SUBTIPO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IDTUMOR</t>
+          <t>SUBTIPO</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2644</v>
       </c>
       <c r="C5" t="n">
-        <v>16237.37102874433</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>8373.595214760875</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8283.25</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>16933.5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>22843.25</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34134</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>IDTUMOR</t>
+          <t>SUBTIPO</t>
         </is>
       </c>
     </row>
@@ -696,43 +696,43 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>COD_TOPOLOGIA</t>
+          <t>EDAD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>COD_TOPOLOGIA</t>
+          <t>EDAD</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2644</v>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>69.10068228815568</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>7.666054210848218</v>
       </c>
       <c r="E7" t="n">
-        <v>61</v>
+        <v>41.82340862422998</v>
       </c>
       <c r="F7" t="n">
-        <v>61</v>
+        <v>64.08555783709788</v>
       </c>
       <c r="G7" t="n">
-        <v>61</v>
+        <v>69.53867214236824</v>
       </c>
       <c r="H7" t="n">
-        <v>61</v>
+        <v>73.9917864476386</v>
       </c>
       <c r="I7" t="n">
-        <v>61</v>
+        <v>97.68651608487338</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>COD_TOPOLOGIA</t>
+          <t>EDAD</t>
         </is>
       </c>
     </row>
@@ -784,43 +784,43 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>SUBTIPO</t>
+          <t>DIAS_HASTA_INICIO_TRATAMIENTO</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SUBTIPO</t>
+          <t>DIAS_HASTA_INICIO_TRATAMIENTO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2315</v>
+        <v>2644</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>262.67965204236</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>329.8485645640152</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3247</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>SUBTIPO</t>
+          <t>DIAS_HASTA_INICIO_TRATAMIENTO</t>
         </is>
       </c>
     </row>
@@ -872,43 +872,43 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DIAS_HASTA_INICIO_TRATAMIENTO</t>
+          <t>SOBREVIVE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DIAS_HASTA_INICIO_TRATAMIENTO</t>
+          <t>SOBREVIVE</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2644</v>
       </c>
       <c r="C11" t="n">
-        <v>262.67965204236</v>
+        <v>0.8248865355521936</v>
       </c>
       <c r="D11" t="n">
-        <v>329.8485645640152</v>
+        <v>0.3801360182122807</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>286</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>3247</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DIAS_HASTA_INICIO_TRATAMIENTO</t>
+          <t>SOBREVIVE</t>
         </is>
       </c>
     </row>
@@ -960,43 +960,483 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>SOBREVIVE</t>
+          <t>DIAS_DESDE_NACIMIENTO_A_DIAGNO</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOBREVIVE</t>
+          <t>DIAS_DESDE_NACIMIENTO_A_DIAGNO</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2644</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8248865355521936</v>
+        <v>25239.02420574886</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3801360182122807</v>
+        <v>2800.026300512312</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>15276</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>23407.25</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>25399</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>27025.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>35680</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>SOBREVIVE</t>
+          <t>DIAS_DESDE_NACIMIENTO_A_DIAGNO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>DIAS_DESDE_NACIMIENTO_A_INGRESO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DIAS_DESDE_NACIMIENTO_A_INGRESO</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2644</v>
+      </c>
+      <c r="C15" t="n">
+        <v>25393.2136913767</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2797.841269091502</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15415</v>
+      </c>
+      <c r="F15" t="n">
+        <v>23592.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25585.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>27202.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>36227</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>DIAS_DESDE_NACIMIENTO_A_INGRESO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>DIAS_DESDE_NACIMIENTO_A_COMITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>DIAS_DESDE_NACIMIENTO_A_COMITE</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2644</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25336.7776096823</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2167.011162598155</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15959</v>
+      </c>
+      <c r="F17" t="n">
+        <v>24439.75</v>
+      </c>
+      <c r="G17" t="n">
+        <v>25576.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>26489.75</v>
+      </c>
+      <c r="I17" t="n">
+        <v>34067</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>DIAS_DESDE_NACIMIENTO_A_COMITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>DIAS_DESDE_NACIMIENTO_TOM_MUESTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DIAS_DESDE_NACIMIENTO_TOM_MUESTRA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2644</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25232.60665658094</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2799.599475631952</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15276</v>
+      </c>
+      <c r="F19" t="n">
+        <v>23408</v>
+      </c>
+      <c r="G19" t="n">
+        <v>25390</v>
+      </c>
+      <c r="H19" t="n">
+        <v>27018.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>35680</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>DIAS_DESDE_NACIMIENTO_TOM_MUESTRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>DIAS_DESDE_NACIMIENTO_TRATAMIENTO_1_INICIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DIAS_DESDE_NACIMIENTO_TRATAMIENTO_1_INICIO</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2644</v>
+      </c>
+      <c r="C21" t="n">
+        <v>25501.70385779122</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2797.624889706238</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15415</v>
+      </c>
+      <c r="F21" t="n">
+        <v>23653</v>
+      </c>
+      <c r="G21" t="n">
+        <v>25677</v>
+      </c>
+      <c r="H21" t="n">
+        <v>27288.25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>36227</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>DIAS_DESDE_NACIMIENTO_TRATAMIENTO_1_INICIO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Descripción</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>DIAS_DESDE_NACIMIENTO_TRATAMIENTO_1_FIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>DIAS_DESDE_NACIMIENTO_TRATAMIENTO_1_FIN</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2644</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25563.99508320726</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2798.598935920928</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15426</v>
+      </c>
+      <c r="F23" t="n">
+        <v>23766.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>25728</v>
+      </c>
+      <c r="H23" t="n">
+        <v>27302.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>36231</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>DIAS_DESDE_NACIMIENTO_TRATAMIENTO_1_FIN</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,33 +1513,33 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SEXO</t>
+          <t>RELIGION1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SEXO</t>
+          <t>RELIGION1</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2644</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>NO RESPONDE</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2641</v>
+        <v>2337</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>SEXO</t>
+          <t>RELIGION1</t>
         </is>
       </c>
     </row>
@@ -1131,33 +1571,33 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FEC_NACIMIENTO</t>
+          <t>ETNIA</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FEC_NACIMIENTO</t>
+          <t>ETNIA</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2644</v>
       </c>
       <c r="C5" t="n">
-        <v>2262</v>
+        <v>6</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1946-12-05</t>
+          <t>Ninguna, No responde</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>2293</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FEC_NACIMIENTO</t>
+          <t>ETNIA</t>
         </is>
       </c>
     </row>
@@ -1189,33 +1629,33 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PREVISION</t>
+          <t>ZONA_VIVIENDA</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PREVISION</t>
+          <t>ZONA_VIVIENDA</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>2644</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONASA B</t>
+          <t>Urbano</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1801</v>
+        <v>1959</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PREVISION</t>
+          <t>ZONA_VIVIENDA</t>
         </is>
       </c>
     </row>
@@ -1247,33 +1687,33 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>RELIGION1</t>
+          <t>COMUNA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RELIGION1</t>
+          <t>COMUNA</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>2644</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NO RESPONDE</t>
+          <t>Valdivia</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2337</v>
+        <v>524</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>RELIGION1</t>
+          <t>COMUNA</t>
         </is>
       </c>
     </row>
@@ -1305,14 +1745,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ETNIA</t>
+          <t>REGION</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ETNIA</t>
+          <t>REGION</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1323,15 +1763,15 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ninguna, No responde</t>
+          <t>REGION DE LOS RIOS</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2293</v>
+        <v>1119</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ETNIA</t>
+          <t>REGION</t>
         </is>
       </c>
     </row>
@@ -1363,33 +1803,33 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ZONA_VIVIENDA</t>
+          <t>SSREFERENCIA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ZONA_VIVIENDA</t>
+          <t>SSREFERENCIA</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2644</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Urbano</t>
+          <t>Valdivia</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1959</v>
+        <v>972</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ZONA_VIVIENDA</t>
+          <t>SSREFERENCIA</t>
         </is>
       </c>
     </row>
@@ -1421,33 +1861,33 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>COMUNA</t>
+          <t>RECINTO_PROCEDE</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>COMUNA</t>
+          <t>RECINTO_PROCEDE</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2644</v>
       </c>
       <c r="C15" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Valdivia</t>
+          <t>Hospital Dr. Hernan Henriquez Aravena (Temuco)</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>524</v>
+        <v>798</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>COMUNA</t>
+          <t>RECINTO_PROCEDE</t>
         </is>
       </c>
     </row>
@@ -1479,33 +1919,33 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>ESTABLE_DESTINO</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>ESTABLE_DESTINO</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>2644</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>REGION DE LOS RIOS</t>
+          <t>Hospital Clinico Regional (Valdivia)</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1119</v>
+        <v>912</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>ESTABLE_DESTINO</t>
         </is>
       </c>
     </row>
@@ -1537,33 +1977,33 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SSREFERENCIA</t>
+          <t>ACT_LABORAL</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SSREFERENCIA</t>
+          <t>ACT_LABORAL</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>2644</v>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Valdivia</t>
+          <t>Sin Informacion</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>972</v>
+        <v>1635</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SSREFERENCIA</t>
+          <t>ACT_LABORAL</t>
         </is>
       </c>
     </row>
@@ -1595,33 +2035,33 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>RECINTO_PROCEDE</t>
+          <t>ACT_EMPRESA</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RECINTO_PROCEDE</t>
+          <t>ACT_EMPRESA</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2644</v>
       </c>
       <c r="C21" t="n">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hospital Dr. Hernan Henriquez Aravena (Temuco)</t>
+          <t>Sin informacion</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>798</v>
+        <v>1628</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>RECINTO_PROCEDE</t>
+          <t>ACT_EMPRESA</t>
         </is>
       </c>
     </row>
@@ -1653,33 +2093,33 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ESTABLE_DESTINO</t>
+          <t>SITUACION_LABORAL</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ESTABLE_DESTINO</t>
+          <t>SITUACION_LABORAL</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2644</v>
       </c>
       <c r="C23" t="n">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hospital Clinico Regional (Valdivia)</t>
+          <t>SIN INFORMACION</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>912</v>
+        <v>1327</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ESTABLE_DESTINO</t>
+          <t>SITUACION_LABORAL</t>
         </is>
       </c>
     </row>
@@ -1711,33 +2151,33 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ACT_LABORAL</t>
+          <t>ULT_CURSO_APROBADO</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ACT_LABORAL</t>
+          <t>ULT_CURSO_APROBADO</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2644</v>
       </c>
       <c r="C25" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sin Informacion</t>
+          <t>No sabe/No responde</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1635</v>
+        <v>2297</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ACT_LABORAL</t>
+          <t>ULT_CURSO_APROBADO</t>
         </is>
       </c>
     </row>
@@ -1769,33 +2209,33 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ACT_EMPRESA</t>
+          <t>CANCER_PREVIO_1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ACT_EMPRESA</t>
+          <t>CANCER_PREVIO_1</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2644</v>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sin informacion</t>
+          <t>Sin CA Previo</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1628</v>
+        <v>2574</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ACT_EMPRESA</t>
+          <t>CANCER_PREVIO_1</t>
         </is>
       </c>
     </row>
@@ -1827,33 +2267,33 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>SITUACION_LABORAL</t>
+          <t>CANCER_PREVIO_2</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SITUACION_LABORAL</t>
+          <t>CANCER_PREVIO_2</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>2644</v>
       </c>
       <c r="C29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SIN INFORMACION</t>
+          <t>Sin CA Previo</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1327</v>
+        <v>2626</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>SITUACION_LABORAL</t>
+          <t>CANCER_PREVIO_2</t>
         </is>
       </c>
     </row>
@@ -1885,33 +2325,33 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ULT_CURSO_APROBADO</t>
+          <t>PARENTESCO_1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ULT_CURSO_APROBADO</t>
+          <t>PARENTESCO_1</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2644</v>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>No sabe/No responde</t>
+          <t>No registra</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2297</v>
+        <v>2002</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ULT_CURSO_APROBADO</t>
+          <t>PARENTESCO_1</t>
         </is>
       </c>
     </row>
@@ -1943,21 +2383,21 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CANCER_PREVIO_1</t>
+          <t>CANCER_PARENTESCO_1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CANCER_PREVIO_1</t>
+          <t>CANCER_PARENTESCO_1</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>2644</v>
       </c>
       <c r="C33" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1965,11 +2405,11 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2574</v>
+        <v>1507</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CANCER_PREVIO_1</t>
+          <t>CANCER_PARENTESCO_1</t>
         </is>
       </c>
     </row>
@@ -2001,33 +2441,33 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>CANCER_PREVIO_2</t>
+          <t>PARENTESCO_2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CANCER_PREVIO_2</t>
+          <t>PARENTESCO_2</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>2644</v>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sin CA Previo</t>
+          <t>No registra</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2626</v>
+        <v>1800</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CANCER_PREVIO_2</t>
+          <t>PARENTESCO_2</t>
         </is>
       </c>
     </row>
@@ -2059,33 +2499,33 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PARENTESCO_1</t>
+          <t>CANCER_PARENTESCO_2</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PARENTESCO_1</t>
+          <t>CANCER_PARENTESCO_2</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>2644</v>
       </c>
       <c r="C37" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>No registra</t>
+          <t>Sin CA Previo</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2002</v>
+        <v>1743</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>PARENTESCO_1</t>
+          <t>CANCER_PARENTESCO_2</t>
         </is>
       </c>
     </row>
@@ -2117,33 +2557,33 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>CANCER_PARENTESCO_1</t>
+          <t>PARENTESCO_3</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CANCER_PARENTESCO_1</t>
+          <t>PARENTESCO_3</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>2644</v>
       </c>
       <c r="C39" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sin CA Previo</t>
+          <t>No registra</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1507</v>
+        <v>1849</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>CANCER_PARENTESCO_1</t>
+          <t>PARENTESCO_3</t>
         </is>
       </c>
     </row>
@@ -2175,33 +2615,33 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>PARENTESCO_2</t>
+          <t>CANCER_PARENTESCO_3</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PARENTESCO_2</t>
+          <t>CANCER_PARENTESCO_3</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>2644</v>
       </c>
       <c r="C41" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>No registra</t>
+          <t>Sin CA Previo</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1800</v>
+        <v>1825</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>PARENTESCO_2</t>
+          <t>CANCER_PARENTESCO_3</t>
         </is>
       </c>
     </row>
@@ -2233,33 +2673,33 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>CANCER_PARENTESCO_2</t>
+          <t>TIPO_TUMOR</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CANCER_PARENTESCO_2</t>
+          <t>TIPO_TUMOR</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>2644</v>
       </c>
       <c r="C43" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sin CA Previo</t>
+          <t>solido</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1743</v>
+        <v>2642</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CANCER_PARENTESCO_2</t>
+          <t>TIPO_TUMOR</t>
         </is>
       </c>
     </row>
@@ -2291,33 +2731,33 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>PARENTESCO_3</t>
+          <t>NOM_TOPOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PARENTESCO_3</t>
+          <t>NOM_TOPOLOGIA</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>2644</v>
       </c>
       <c r="C45" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>No registra</t>
+          <t>Prostata</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1849</v>
+        <v>2644</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>PARENTESCO_3</t>
+          <t>NOM_TOPOLOGIA</t>
         </is>
       </c>
     </row>
@@ -2349,33 +2789,33 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>CANCER_PARENTESCO_3</t>
+          <t>COD_DET_TOPOLOGIA</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CANCER_PARENTESCO_3</t>
+          <t>COD_DET_TOPOLOGIA</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>2644</v>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sin CA Previo</t>
+          <t>C61.9</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1825</v>
+        <v>2644</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>CANCER_PARENTESCO_3</t>
+          <t>COD_DET_TOPOLOGIA</t>
         </is>
       </c>
     </row>
@@ -2407,33 +2847,33 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>FECHA_COMITE</t>
+          <t>NOM_DETALLE_TOPO</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FECHA_COMITE</t>
+          <t>NOM_DETALLE_TOPO</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1928</v>
+        <v>2644</v>
       </c>
       <c r="C49" t="n">
-        <v>1078</v>
+        <v>1</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2015-04-14</t>
+          <t>Glándula prostática</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>9</v>
+        <v>2644</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>FECHA_COMITE</t>
+          <t>NOM_DETALLE_TOPO</t>
         </is>
       </c>
     </row>
@@ -2465,33 +2905,33 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>FEC_INGRESO_CASO</t>
+          <t>COD_CIE10</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>FEC_INGRESO_CASO</t>
+          <t>COD_CIE10</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>2644</v>
       </c>
       <c r="C51" t="n">
-        <v>1553</v>
+        <v>2</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2019-01-07</t>
+          <t>C61.X</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>2643</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>FEC_INGRESO_CASO</t>
+          <t>COD_CIE10</t>
         </is>
       </c>
     </row>
@@ -2523,33 +2963,33 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>FEC_DIAGNO</t>
+          <t>MORFO_COMPLETA</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FEC_DIAGNO</t>
+          <t>MORFO_COMPLETA</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>2644</v>
       </c>
       <c r="C53" t="n">
-        <v>1506</v>
+        <v>9</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>8140/3 ADENOCARCINOMA, SAI</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>20</v>
+        <v>2499</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>FEC_DIAGNO</t>
+          <t>MORFO_COMPLETA</t>
         </is>
       </c>
     </row>
@@ -2581,33 +3021,33 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>FEC_TOM_MUESTRA</t>
+          <t>NOM_COMPORTAMIENTO</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>FEC_TOM_MUESTRA</t>
+          <t>NOM_COMPORTAMIENTO</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2643</v>
+        <v>2644</v>
       </c>
       <c r="C55" t="n">
-        <v>1539</v>
+        <v>1</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>Maligno</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>20</v>
+        <v>2644</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>FEC_TOM_MUESTRA</t>
+          <t>NOM_COMPORTAMIENTO</t>
         </is>
       </c>
     </row>
@@ -2639,33 +3079,33 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>TIPO_TUMOR</t>
+          <t>EXTENSION_NOM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TIPO_TUMOR</t>
+          <t>EXTENSION_NOM</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>2644</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>solido</t>
+          <t>Localizada</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2642</v>
+        <v>1786</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>TIPO_TUMOR</t>
+          <t>EXTENSION_NOM</t>
         </is>
       </c>
     </row>
@@ -2697,33 +3137,33 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>NOM_TOPOLOGIA</t>
+          <t>LATERALIDAD_NOM</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NOM_TOPOLOGIA</t>
+          <t>LATERALIDAD_NOM</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>2644</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Prostata</t>
+          <t>No Corresponde</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2644</v>
+        <v>2627</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>NOM_TOPOLOGIA</t>
+          <t>LATERALIDAD_NOM</t>
         </is>
       </c>
     </row>
@@ -2755,33 +3195,33 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>COD_DET_TOPOLOGIA</t>
+          <t>GRADO_DIFERENCIACION</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>COD_DET_TOPOLOGIA</t>
+          <t>GRADO_DIFERENCIACION</t>
         </is>
       </c>
       <c r="B61" t="n">
         <v>2644</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>C61.9</t>
+          <t>Moderadamente Diferenciado</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2644</v>
+        <v>1292</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>COD_DET_TOPOLOGIA</t>
+          <t>GRADO_DIFERENCIACION</t>
         </is>
       </c>
     </row>
@@ -2813,33 +3253,33 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>NOM_DETALLE_TOPO</t>
+          <t>BASE_DIAGNOSTICA</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NOM_DETALLE_TOPO</t>
+          <t>BASE_DIAGNOSTICA</t>
         </is>
       </c>
       <c r="B63" t="n">
         <v>2644</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Glándula prostática</t>
+          <t>Histologia de Sitio Primario</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2644</v>
+        <v>2474</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>NOM_DETALLE_TOPO</t>
+          <t>BASE_DIAGNOSTICA</t>
         </is>
       </c>
     </row>
@@ -2871,33 +3311,33 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>COD_CIE10</t>
+          <t>TUMOR</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>COD_CIE10</t>
+          <t>TUMOR</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>2644</v>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>C61.X</t>
+          <t>Primario</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2643</v>
+        <v>2471</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>COD_CIE10</t>
+          <t>TUMOR</t>
         </is>
       </c>
     </row>
@@ -2929,33 +3369,33 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>MORFO_COMPLETA</t>
+          <t>GRAVEDAD</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MORFO_COMPLETA</t>
+          <t>GRAVEDAD</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>2644</v>
       </c>
       <c r="C67" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>8140/3 ADENOCARCINOMA, SAI</t>
+          <t>No Corresponde</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2499</v>
+        <v>1607</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MORFO_COMPLETA</t>
+          <t>GRAVEDAD</t>
         </is>
       </c>
     </row>
@@ -2987,33 +3427,33 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>NOM_COMPORTAMIENTO</t>
+          <t>POBLACION</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NOM_COMPORTAMIENTO</t>
+          <t>POBLACION</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>2644</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Maligno</t>
+          <t>No Existe</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>2644</v>
+        <v>1648</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>NOM_COMPORTAMIENTO</t>
+          <t>POBLACION</t>
         </is>
       </c>
     </row>
@@ -3045,33 +3485,33 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>EXTENSION_NOM</t>
+          <t>ETAPA_CLINICA</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EXTENSION_NOM</t>
+          <t>ETAPA_CLINICA</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>2644</v>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Localizada</t>
+          <t>II</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1786</v>
+        <v>1217</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>EXTENSION_NOM</t>
+          <t>ETAPA_CLINICA</t>
         </is>
       </c>
     </row>
@@ -3103,33 +3543,33 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>LATERALIDAD_NOM</t>
+          <t>ESTADO_ACTUAL_TTO</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>LATERALIDAD_NOM</t>
+          <t>ESTADO_ACTUAL_TTO</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>2644</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>No Corresponde</t>
+          <t>Alta</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2627</v>
+        <v>1693</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>LATERALIDAD_NOM</t>
+          <t>ESTADO_ACTUAL_TTO</t>
         </is>
       </c>
     </row>
@@ -3161,33 +3601,33 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>GRADO_DIFERENCIACION</t>
+          <t>CLASE_DE_CASO</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>GRADO_DIFERENCIACION</t>
+          <t>CLASE_DE_CASO</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>2644</v>
       </c>
       <c r="C75" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Moderadamente Diferenciado</t>
+          <t>Diagnosticado en otro centro, TTO en recinto</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1292</v>
+        <v>1683</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>GRADO_DIFERENCIACION</t>
+          <t>CLASE_DE_CASO</t>
         </is>
       </c>
     </row>
@@ -3219,33 +3659,33 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>BASE_DIAGNOSTICA</t>
+          <t>FUENTE_1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BASE_DIAGNOSTICA</t>
+          <t>FUENTE_1</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>2644</v>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Histologia de Sitio Primario</t>
+          <t>RADIOTERAPIA</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2474</v>
+        <v>1256</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>BASE_DIAGNOSTICA</t>
+          <t>FUENTE_1</t>
         </is>
       </c>
     </row>
@@ -3277,33 +3717,33 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>TUMOR</t>
+          <t>ESTADO</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>TUMOR</t>
+          <t>ESTADO</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>2644</v>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Primario</t>
+          <t>CORRESPONDE</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2471</v>
+        <v>2639</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>TUMOR</t>
+          <t>ESTADO</t>
         </is>
       </c>
     </row>
@@ -3335,14 +3775,14 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>GRAVEDAD</t>
+          <t>INTENCION_TRATA</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GRAVEDAD</t>
+          <t>INTENCION_TRATA</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3353,15 +3793,15 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>No Corresponde</t>
+          <t>Curativo</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1607</v>
+        <v>2227</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>GRAVEDAD</t>
+          <t>INTENCION_TRATA</t>
         </is>
       </c>
     </row>
@@ -3393,33 +3833,33 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>POBLACION</t>
+          <t>RESPUESTA_TRATA</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>POBLACION</t>
+          <t>RESPUESTA_TRATA</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>2644</v>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>No Existe</t>
+          <t>Enfermedad Estable</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1648</v>
+        <v>1954</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>POBLACION</t>
+          <t>RESPUESTA_TRATA</t>
         </is>
       </c>
     </row>
@@ -3451,33 +3891,33 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ETAPA_CLINICA</t>
+          <t>TIPO_TERAPIA_1</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ETAPA_CLINICA</t>
+          <t>TIPO_TERAPIA_1</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2287</v>
+        <v>2644</v>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>Teleterapia</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>860</v>
+        <v>1557</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ETAPA_CLINICA</t>
+          <t>TIPO_TERAPIA_1</t>
         </is>
       </c>
     </row>
@@ -3509,33 +3949,33 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ESTADO_ACTUAL</t>
+          <t>TIPO_TERAPIA_2</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ESTADO_ACTUAL</t>
+          <t>TIPO_TERAPIA_2</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>2644</v>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>VIVO CON ENFERMEDAD</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1919</v>
+        <v>1724</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ESTADO_ACTUAL</t>
+          <t>TIPO_TERAPIA_2</t>
         </is>
       </c>
     </row>
@@ -3567,33 +4007,33 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ESTADO_ACTUAL_TTO</t>
+          <t>TIPO_TRATAMIENTO_1</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ESTADO_ACTUAL_TTO</t>
+          <t>TIPO_TRATAMIENTO_1</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>2644</v>
       </c>
       <c r="C89" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Alta</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1693</v>
+        <v>1078</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ESTADO_ACTUAL_TTO</t>
+          <t>TIPO_TRATAMIENTO_1</t>
         </is>
       </c>
     </row>
@@ -3625,33 +4065,33 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ULTIMO_CONTACTO</t>
+          <t>TIPO_TRATAMIENTO_2</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ULTIMO_CONTACTO</t>
+          <t>TIPO_TRATAMIENTO_2</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>2644</v>
       </c>
       <c r="C91" t="n">
-        <v>1382</v>
+        <v>4</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>08-03-2022</t>
+          <t>Desconocido</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>47</v>
+        <v>1724</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ULTIMO_CONTACTO</t>
+          <t>TIPO_TRATAMIENTO_2</t>
         </is>
       </c>
     </row>
@@ -3683,14 +4123,14 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ESTADO_RECH</t>
+          <t>Tipo_Tumor</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ESTADO_RECH</t>
+          <t>Tipo_Tumor</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3701,15 +4141,15 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>FIN DE CASO</t>
+          <t>p</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>2323</v>
+        <v>1273</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ESTADO_RECH</t>
+          <t>Tipo_Tumor</t>
         </is>
       </c>
     </row>
@@ -3741,33 +4181,33 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>CLASE_DE_CASO</t>
+          <t>T</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CLASE_DE_CASO</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>2644</v>
       </c>
       <c r="C95" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Diagnosticado en otro centro, TTO en recinto</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1683</v>
+        <v>709</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>CLASE_DE_CASO</t>
+          <t>T</t>
         </is>
       </c>
     </row>
@@ -3799,33 +4239,33 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>FUENTE_1</t>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FUENTE_1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2378</v>
+        <v>2644</v>
       </c>
       <c r="C97" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RADIOTERAPIA</t>
+          <t>N0</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>990</v>
+        <v>1918</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>FUENTE_1</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -3857,901 +4297,31 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ESTADO</t>
+          <t>M</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ESTADO</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>2644</v>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CORRESPONDE</t>
+          <t>M0</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2639</v>
+        <v>2123</v>
       </c>
       <c r="F99" t="inlineStr">
-        <is>
-          <t>ESTADO</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>INTENCION_TRATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>INTENCION_TRATA</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>2644</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Curativo</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>2227</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>INTENCION_TRATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>RESPUESTA_TRATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>RESPUESTA_TRATA</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>2644</v>
-      </c>
-      <c r="C103" t="n">
-        <v>6</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Enfermedad Estable</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>1954</v>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>RESPUESTA_TRATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>OBSERVACIONES</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>OBSERVACIONES</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>2644</v>
-      </c>
-      <c r="C105" t="n">
-        <v>2060</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>|</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>98</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>OBSERVACIONES</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>TIPO_TERAPIA_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>TIPO_TERAPIA_1</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>2644</v>
-      </c>
-      <c r="C107" t="n">
-        <v>11</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Teleterapia</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>1557</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>TIPO_TERAPIA_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>TIPO_TERAPIA_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>TIPO_TERAPIA_2</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>920</v>
-      </c>
-      <c r="C109" t="n">
-        <v>8</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Hormonoterapia</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>402</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>TIPO_TERAPIA_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>FECHA_INICIO_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>FECHA_INICIO_1</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>2644</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1543</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>2019-09-23</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>10</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>FECHA_INICIO_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>FECHA_INICIO_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>FECHA_INICIO_2</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>899</v>
-      </c>
-      <c r="C113" t="n">
-        <v>736</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>2016-04-11</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>5</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>FECHA_INICIO_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>FECHA_TERMINO_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>FECHA_TERMINO_1</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>2583</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1678</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>2021-09-06</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>6</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>FECHA_TERMINO_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>FECHA_TERMINO_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>FECHA_TERMINO_2</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>790</v>
-      </c>
-      <c r="C117" t="n">
-        <v>682</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>2016-11-21</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>4</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>FECHA_TERMINO_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>TIPO_TRATAMIENTO_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>TIPO_TRATAMIENTO_1</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>2644</v>
-      </c>
-      <c r="C119" t="n">
-        <v>3</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>1078</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>TIPO_TRATAMIENTO_1</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>TIPO_TRATAMIENTO_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>TIPO_TRATAMIENTO_2</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>920</v>
-      </c>
-      <c r="C121" t="n">
-        <v>3</v>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>524</v>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>TIPO_TRATAMIENTO_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Tipo_Tumor</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Tipo_Tumor</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>2251</v>
-      </c>
-      <c r="C123" t="n">
-        <v>4</v>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>945</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Tipo_Tumor</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>2214</v>
-      </c>
-      <c r="C125" t="n">
-        <v>15</v>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>316</v>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>2214</v>
-      </c>
-      <c r="C127" t="n">
-        <v>7</v>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>N0</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>1525</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Descripción</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>unique</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>freq</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>2214</v>
-      </c>
-      <c r="C129" t="n">
-        <v>8</v>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>M0</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>1730</v>
-      </c>
-      <c r="F129" t="inlineStr">
         <is>
           <t>M</t>
         </is>
